--- a/Scen_NCAP_NUC.xlsx
+++ b/Scen_NCAP_NUC.xlsx
@@ -508,7 +508,7 @@
   <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:F11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -623,7 +623,7 @@
         <v>2040</v>
       </c>
       <c r="E8" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>12</v>
@@ -640,7 +640,7 @@
         <v>2045</v>
       </c>
       <c r="E9" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>12</v>
@@ -657,7 +657,7 @@
         <v>2050</v>
       </c>
       <c r="E10" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
@@ -674,7 +674,7 @@
         <v>2050</v>
       </c>
       <c r="E11" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>12</v>
@@ -710,15 +710,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -727,6 +718,15 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -925,14 +925,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -941,6 +933,14 @@
     <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
     <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
